--- a/ExternalData/Holidays.xlsx
+++ b/ExternalData/Holidays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/fce19_ic_ac_uk/Documents/Programming/ShellDatathon/ExternalData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="11_AD4DB114E441178AC67DF4B42615F688683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CD825ED-7C8B-488A-84E5-66A300B603A0}"/>
+  <xr:revisionPtr revIDLastSave="177" documentId="11_AD4DB114E441178AC67DF4B42615F688683EDF19" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C4EBF38-FBC4-4CE0-AC78-DC15ABDEC005}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
   <si>
     <t>New years</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>Holiday</t>
+  </si>
+  <si>
+    <t>Weekday</t>
   </si>
 </sst>
 </file>
@@ -121,12 +124,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,7 +422,7 @@
     <col min="7" max="7" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -436,8 +438,11 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>41640</v>
       </c>
@@ -445,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -454,8 +459,12 @@
         <f>IF(WEEKDAY(A2,2) &gt; 5, 1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <f>IF(WEEKDAY(A2,2) &lt; 6, 1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>41752</v>
       </c>
@@ -472,8 +481,12 @@
         <f t="shared" ref="E3:E16" si="0">IF(WEEKDAY(A3,2) &gt; 5, 1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="1">IF(WEEKDAY(A3,2) &lt; 6, 1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>41760</v>
       </c>
@@ -490,8 +503,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>41778</v>
       </c>
@@ -508,8 +525,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>41847</v>
       </c>
@@ -526,8 +547,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>41848</v>
       </c>
@@ -544,8 +569,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>41849</v>
       </c>
@@ -562,8 +591,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>41850</v>
       </c>
@@ -580,8 +613,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>41881</v>
       </c>
@@ -598,8 +635,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>41915</v>
       </c>
@@ -616,8 +657,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>41916</v>
       </c>
@@ -634,8 +679,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>41917</v>
       </c>
@@ -652,8 +701,12 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>41918</v>
       </c>
@@ -670,8 +723,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>41919</v>
       </c>
@@ -685,11 +742,15 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <f t="shared" ref="E15" si="1">IF(WEEKDAY(A15,2) &gt; 5, 1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E15" si="2">IF(WEEKDAY(A15,2) &gt; 5, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>41941</v>
       </c>
@@ -706,8 +767,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f>A2+365</f>
         <v>42005</v>
@@ -716,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -725,8 +790,12 @@
         <f>IF(WEEKDAY(A17,2) &gt; 5, 1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f>A3+365</f>
         <v>42117</v>
@@ -741,11 +810,15 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <f t="shared" ref="E18:E31" si="2">IF(WEEKDAY(A18,2) &gt; 5, 1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E18:E31" si="3">IF(WEEKDAY(A18,2) &gt; 5, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f>A4+365</f>
         <v>42125</v>
@@ -760,11 +833,15 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f>A5+365</f>
         <v>42143</v>
@@ -779,11 +856,15 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <f>A6+365-11</f>
         <v>42201</v>
@@ -798,11 +879,15 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <f>A7+365-11</f>
         <v>42202</v>
@@ -817,11 +902,15 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <f>A8+365-11</f>
         <v>42203</v>
@@ -836,11 +925,15 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <f>A9+365-11</f>
         <v>42204</v>
@@ -855,11 +948,15 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f>A10+365</f>
         <v>42246</v>
@@ -874,11 +971,15 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <f>A11+365-10</f>
         <v>42270</v>
@@ -893,11 +994,15 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <f>A12+365-10</f>
         <v>42271</v>
@@ -912,11 +1017,15 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <f>A13+365-10</f>
         <v>42272</v>
@@ -931,11 +1040,15 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <f>A14+365-10</f>
         <v>42273</v>
@@ -950,11 +1063,15 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <f>A15+365-10</f>
         <v>42274</v>
@@ -969,11 +1086,15 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30" si="3">IF(WEEKDAY(A30,2) &gt; 5, 1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E30" si="4">IF(WEEKDAY(A30,2) &gt; 5, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f>A16+365</f>
         <v>42306</v>
@@ -988,11 +1109,15 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f>A17+365</f>
         <v>42370</v>
@@ -1001,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1010,8 +1135,12 @@
         <f>IF(WEEKDAY(A32,2) &gt; 5, 1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f>A18+365+1</f>
         <v>42483</v>
@@ -1026,11 +1155,15 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <f t="shared" ref="E33:E46" si="4">IF(WEEKDAY(A33,2) &gt; 5, 1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E33:E46" si="5">IF(WEEKDAY(A33,2) &gt; 5, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f>A19+365+1</f>
         <v>42491</v>
@@ -1045,11 +1178,15 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f>A20+365+1</f>
         <v>42509</v>
@@ -1064,11 +1201,15 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f>A21+365-11</f>
         <v>42555</v>
@@ -1083,11 +1224,15 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f>A22+365-11</f>
         <v>42556</v>
@@ -1102,11 +1247,15 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f>A23+365-11</f>
         <v>42557</v>
@@ -1121,11 +1270,15 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f>A24+365-11</f>
         <v>42558</v>
@@ -1140,11 +1293,15 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f>A25+365+1</f>
         <v>42612</v>
@@ -1159,11 +1316,15 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <f>A26+365-11</f>
         <v>42624</v>
@@ -1178,13 +1339,17 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <f t="shared" ref="A42:A45" si="5">A27+365-11</f>
+        <f t="shared" ref="A42:A45" si="6">A27+365-11</f>
         <v>42625</v>
       </c>
       <c r="B42" t="s">
@@ -1197,51 +1362,63 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
+        <f t="shared" si="6"/>
+        <v>42626</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
         <f t="shared" si="5"/>
-        <v>42626</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
+        <f t="shared" si="6"/>
+        <v>42627</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="5"/>
-        <v>42627</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>42628</v>
       </c>
       <c r="B45" t="s">
@@ -1254,11 +1431,15 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45" si="6">IF(WEEKDAY(A45,2) &gt; 5, 1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E45" si="7">IF(WEEKDAY(A45,2) &gt; 5, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f>A31+365+1</f>
         <v>42672</v>
@@ -1273,11 +1454,15 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f>A32+366</f>
         <v>42736</v>
@@ -1286,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1295,8 +1480,12 @@
         <f>IF(WEEKDAY(A47,2) &gt; 5, 1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f>A33+365</f>
         <v>42848</v>
@@ -1311,11 +1500,15 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" ref="E48:E62" si="7">IF(WEEKDAY(A48,2) &gt; 5, 1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E48:E62" si="8">IF(WEEKDAY(A48,2) &gt; 5, 1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f>A34+365</f>
         <v>42856</v>
@@ -1330,11 +1523,15 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f>A35+365</f>
         <v>42874</v>
@@ -1349,11 +1546,15 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <f>A36+365-10</f>
         <v>42910</v>
@@ -1368,13 +1569,17 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
-        <f t="shared" ref="A52:A54" si="8">A37+365-10</f>
+        <f t="shared" ref="A52:A54" si="9">A37+365-10</f>
         <v>42911</v>
       </c>
       <c r="B52" t="s">
@@ -1387,13 +1592,17 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42912</v>
       </c>
       <c r="B53" t="s">
@@ -1406,13 +1615,17 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>42913</v>
       </c>
       <c r="B54" t="s">
@@ -1425,11 +1638,15 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>42931</v>
       </c>
@@ -1443,11 +1660,15 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f>A40+365</f>
         <v>42977</v>
@@ -1462,11 +1683,15 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <f>A41+365-11</f>
         <v>42978</v>
@@ -1481,11 +1706,15 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <f>A42+365-11</f>
         <v>42979</v>
@@ -1500,11 +1729,15 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <f>A43+365-11</f>
         <v>42980</v>
@@ -1519,11 +1752,15 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <f>A44+365-11</f>
         <v>42981</v>
@@ -1538,11 +1775,15 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <f>A45+365-11</f>
         <v>42982</v>
@@ -1557,11 +1798,15 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <f>A46+365</f>
         <v>43037</v>
@@ -1576,11 +1821,15 @@
         <v>0</v>
       </c>
       <c r="E62">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <f>A47+365</f>
         <v>43101</v>
@@ -1589,7 +1838,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D63">
         <v>0</v>
@@ -1598,8 +1847,12 @@
         <f>IF(WEEKDAY(A63,2) &gt; 5, 1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <f>A48+365</f>
         <v>43213</v>
@@ -1614,11 +1867,15 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <f t="shared" ref="E64:E78" si="9">IF(WEEKDAY(A64,2) &gt; 5, 1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E64:E78" si="10">IF(WEEKDAY(A64,2) &gt; 5, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <f>A49+365</f>
         <v>43221</v>
@@ -1633,11 +1890,15 @@
         <v>0</v>
       </c>
       <c r="E65">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <f>A50+365</f>
         <v>43239</v>
@@ -1652,11 +1913,15 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f>A51+365-10</f>
         <v>43265</v>
@@ -1671,11 +1936,15 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:F94" si="11">IF(WEEKDAY(A67,2) &lt; 6, 1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f>A52+365-10</f>
         <v>43266</v>
@@ -1690,11 +1959,15 @@
         <v>1</v>
       </c>
       <c r="E68">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f>A53+365-10</f>
         <v>43267</v>
@@ -1709,11 +1982,15 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f>A54+365-10</f>
         <v>43268</v>
@@ -1728,12 +2005,16 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
         <v>43296</v>
       </c>
       <c r="B71" t="s">
@@ -1749,8 +2030,12 @@
         <f>IF(WEEKDAY(A71,2) &gt; 5, 1,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <f>A56+365</f>
         <v>43342</v>
@@ -1765,11 +2050,15 @@
         <v>0</v>
       </c>
       <c r="E72">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f>A57+365-11</f>
         <v>43332</v>
@@ -1784,11 +2073,15 @@
         <v>1</v>
       </c>
       <c r="E73">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f>A58+365-11</f>
         <v>43333</v>
@@ -1803,11 +2096,15 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <f>A59+365-11</f>
         <v>43334</v>
@@ -1822,11 +2119,15 @@
         <v>1</v>
       </c>
       <c r="E75">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <f>A60+365-11</f>
         <v>43335</v>
@@ -1841,11 +2142,15 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <f>A61+365-11</f>
         <v>43336</v>
@@ -1860,11 +2165,15 @@
         <v>1</v>
       </c>
       <c r="E77">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <f>A62+365</f>
         <v>43402</v>
@@ -1879,11 +2188,15 @@
         <v>0</v>
       </c>
       <c r="E78">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <f>A63+365</f>
         <v>43466</v>
@@ -1892,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79">
         <v>0</v>
@@ -1901,8 +2214,12 @@
         <f>IF(WEEKDAY(A79,2) &gt; 5, 1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <f>A64+365</f>
         <v>43578</v>
@@ -1917,11 +2234,15 @@
         <v>0</v>
       </c>
       <c r="E80">
-        <f t="shared" ref="E80:E94" si="10">IF(WEEKDAY(A80,2) &gt; 5, 1,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" ref="E80:E94" si="12">IF(WEEKDAY(A80,2) &gt; 5, 1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <f>A65+365</f>
         <v>43586</v>
@@ -1936,11 +2257,15 @@
         <v>0</v>
       </c>
       <c r="E81">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <f>A66+365</f>
         <v>43604</v>
@@ -1955,11 +2280,15 @@
         <v>0</v>
       </c>
       <c r="E82">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f>A67+365-10</f>
         <v>43620</v>
@@ -1974,11 +2303,15 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <f>A68+365-10</f>
         <v>43621</v>
@@ -1993,11 +2326,15 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <f>A69+365-10</f>
         <v>43622</v>
@@ -2012,11 +2349,15 @@
         <v>1</v>
       </c>
       <c r="E85">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <f>A70+365-10</f>
         <v>43623</v>
@@ -2031,12 +2372,16 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
         <v>43661</v>
       </c>
       <c r="B87" t="s">
@@ -2052,8 +2397,12 @@
         <f>IF(WEEKDAY(A87,2) &gt; 5, 1,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <f>A72+365</f>
         <v>43707</v>
@@ -2068,11 +2417,15 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <f>A73+365-10</f>
         <v>43687</v>
@@ -2087,13 +2440,17 @@
         <v>1</v>
       </c>
       <c r="E89">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
-        <f t="shared" ref="A90:A93" si="11">A74+365-10</f>
+        <f t="shared" ref="A90:A93" si="13">A74+365-10</f>
         <v>43688</v>
       </c>
       <c r="B90" t="s">
@@ -2106,13 +2463,17 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>43689</v>
       </c>
       <c r="B91" t="s">
@@ -2125,13 +2486,17 @@
         <v>1</v>
       </c>
       <c r="E91">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>43690</v>
       </c>
       <c r="B92" t="s">
@@ -2144,13 +2509,17 @@
         <v>1</v>
       </c>
       <c r="E92">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>43691</v>
       </c>
       <c r="B93" t="s">
@@ -2163,11 +2532,15 @@
         <v>1</v>
       </c>
       <c r="E93">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <f>A78+365</f>
         <v>43767</v>
@@ -2182,8 +2555,12 @@
         <v>0</v>
       </c>
       <c r="E94">
-        <f t="shared" si="10"/>
-        <v>0</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
